--- a/Chiba_team/試験項目書_NTP_タイマー.xlsx
+++ b/Chiba_team/試験項目書_NTP_タイマー.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E6752E2-D440-DB4F-8A9A-0EA5EBA1C6EF}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace_2022\ict2git\candd2022\Chiba_team\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC4F975-981A-47A7-8C42-234A1868B5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="試験項目" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>目的</t>
   </si>
@@ -159,13 +151,48 @@
   </si>
   <si>
     <t>指定時刻で通知が表示されないこと</t>
+  </si>
+  <si>
+    <t>渡邉</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配置などレイアウトは多少差あり</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通知出ず。</t>
+    <rPh sb="0" eb="3">
+      <t>ツウチデ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +206,13 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -317,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,6 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -687,41 +722,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.4296875" customWidth="1"/>
-    <col min="2" max="2" width="14.33984375" customWidth="1"/>
-    <col min="3" max="3" width="3.0625" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
+    <col min="3" max="3" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -729,22 +764,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -752,13 +787,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -766,21 +803,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5BFACB-06BA-3148-81CB-5CA16F460384}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="1.9609375" customWidth="1"/>
-    <col min="2" max="2" width="4.41015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8515625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.44921875" customWidth="1"/>
-    <col min="6" max="6" width="37.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" customWidth="1"/>
+    <col min="6" max="6" width="37.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
@@ -809,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -825,12 +863,20 @@
       <c r="F3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="25">
+        <v>45092</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -842,12 +888,18 @@
       <c r="F4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="25">
+        <v>45092</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -857,12 +909,18 @@
       <c r="F5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="25">
+        <v>45092</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -874,12 +932,18 @@
       <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="25">
+        <v>45092</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -891,12 +955,18 @@
       <c r="F7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="25">
+        <v>45092</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -906,12 +976,18 @@
       <c r="F8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="25">
+        <v>45092</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -923,12 +999,20 @@
       <c r="F9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="25">
+        <v>45092</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -947,7 +1031,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -966,7 +1050,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -981,7 +1065,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -998,7 +1082,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -1013,7 +1097,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -1030,7 +1114,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1047,7 +1131,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -1062,7 +1146,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -1079,7 +1163,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -1094,7 +1178,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -1113,7 +1197,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -1132,7 +1216,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -1147,7 +1231,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -1164,7 +1248,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -1179,7 +1263,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -1196,7 +1280,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -1213,7 +1297,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -1228,7 +1312,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -1245,7 +1329,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -1259,7 +1343,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -1280,7 +1364,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -1297,7 +1381,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -1316,7 +1400,7 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10" ht="29.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -1334,6 +1418,8 @@
       <c r="J33" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chiba_team/試験項目書_NTP_タイマー.xlsx
+++ b/Chiba_team/試験項目書_NTP_タイマー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace_2022\ict2git\candd2022\Chiba_team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC4F975-981A-47A7-8C42-234A1868B5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB953AD-DDE1-4A10-9826-493EF52A08B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t>目的</t>
   </si>
@@ -177,13 +177,81 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NG</t>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2023/6/15
+2023/7/21</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>通知出ず。</t>
-    <rPh sb="0" eb="3">
-      <t>ツウチデ</t>
+    <t>2023/6/15NG　通知がでない。（送信時のラジオボタン選択値設定ミス、バックエンド側計算処理ミス）
+2023/7/21再試験OK</t>
+    <rPh sb="12" eb="14">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ソウシンジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>ケイサンショリ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>サイシケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改善点？
+停止時、startとstopそれぞれのAPIから「動作中のタイマーを中断しました。」が返却されるため2連続で通知が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>チュウダン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APIから返却された文言「動作中のタイマーはありません。」が表示される（エラーではない）</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ドウサチュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -351,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,6 +474,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -803,9 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5BFACB-06BA-3148-81CB-5CA16F460384}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -816,6 +885,7 @@
     <col min="5" max="5" width="34.3984375" customWidth="1"/>
     <col min="6" max="6" width="37.296875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
@@ -987,7 +1057,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.45">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -1002,14 +1072,14 @@
       <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="25">
-        <v>45092</v>
+      <c r="H9" s="26" t="s">
+        <v>46</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>46</v>
+      <c r="J9" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
@@ -1192,9 +1262,15 @@
       <c r="F20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" ht="36" x14ac:dyDescent="0.45">
@@ -1211,9 +1287,15 @@
       <c r="F21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.45">
@@ -1226,9 +1308,15 @@
       <c r="F22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" ht="36" x14ac:dyDescent="0.45">
@@ -1243,9 +1331,15 @@
       <c r="F23" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.45">
@@ -1258,9 +1352,15 @@
       <c r="F24" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.45">
@@ -1275,9 +1375,15 @@
       <c r="F25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.45">
@@ -1292,9 +1398,15 @@
       <c r="F26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.45">
@@ -1307,9 +1419,15 @@
       <c r="F27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.45">
@@ -1324,9 +1442,15 @@
       <c r="F28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
@@ -1338,9 +1462,15 @@
       <c r="F29" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.45">
@@ -1359,9 +1489,15 @@
       <c r="F30" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="G30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="2:10" ht="36" x14ac:dyDescent="0.45">
@@ -1376,10 +1512,18 @@
       <c r="F31" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.45">
       <c r="B32" s="8">
@@ -1395,12 +1539,18 @@
       <c r="F32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="90" x14ac:dyDescent="0.45">
       <c r="B33" s="8">
         <v>31</v>
       </c>
@@ -1412,10 +1562,18 @@
       <c r="F33" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="25">
+        <v>45128</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Chiba_team/試験項目書_NTP_タイマー.xlsx
+++ b/Chiba_team/試験項目書_NTP_タイマー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace_2022\ict2git\candd2022\Chiba_team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itanoLocal\work\mysample\candd2022\Chiba_team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB953AD-DDE1-4A10-9826-493EF52A08B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4833C0CD-0435-44E7-9890-E1E08891FEA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>目的</t>
   </si>
@@ -252,6 +252,13 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>板野</t>
+    <rPh sb="0" eb="2">
+      <t>イタノ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -795,39 +802,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="3.09765625" customWidth="1"/>
+    <col min="1" max="1" width="3.4140625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -835,22 +842,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -858,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -876,19 +883,19 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3984375" customWidth="1"/>
-    <col min="6" max="6" width="37.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4140625" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
@@ -917,7 +924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -946,7 +953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -969,7 +976,7 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -990,7 +997,7 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8">
         <v>4</v>
       </c>
@@ -1013,7 +1020,7 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8">
         <v>5</v>
       </c>
@@ -1036,7 +1043,7 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8">
         <v>6</v>
       </c>
@@ -1057,7 +1064,7 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8">
         <v>7</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8">
         <v>8</v>
       </c>
@@ -1096,12 +1103,18 @@
       <c r="F10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8">
         <v>9</v>
       </c>
@@ -1115,12 +1128,18 @@
       <c r="F11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8">
         <v>10</v>
       </c>
@@ -1130,12 +1149,18 @@
       <c r="F12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -1147,12 +1172,18 @@
       <c r="F13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8">
         <v>12</v>
       </c>
@@ -1162,12 +1193,18 @@
       <c r="F14" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8">
         <v>13</v>
       </c>
@@ -1179,12 +1216,18 @@
       <c r="F15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8">
         <v>14</v>
       </c>
@@ -1196,12 +1239,18 @@
       <c r="F16" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8">
         <v>15</v>
       </c>
@@ -1211,12 +1260,18 @@
       <c r="F17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8">
         <v>16</v>
       </c>
@@ -1228,12 +1283,18 @@
       <c r="F18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8">
         <v>17</v>
       </c>
@@ -1243,12 +1304,18 @@
       <c r="F19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="25">
+        <v>45129</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8">
         <v>18</v>
       </c>
@@ -1273,7 +1340,7 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8">
         <v>19</v>
       </c>
@@ -1298,7 +1365,7 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8">
         <v>20</v>
       </c>
@@ -1319,7 +1386,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8">
         <v>21</v>
       </c>
@@ -1342,7 +1409,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8">
         <v>22</v>
       </c>
@@ -1363,7 +1430,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="8">
         <v>23</v>
       </c>
@@ -1386,7 +1453,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="8">
         <v>24</v>
       </c>
@@ -1409,7 +1476,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="8">
         <v>25</v>
       </c>
@@ -1430,7 +1497,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8">
         <v>26</v>
       </c>
@@ -1453,7 +1520,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8">
         <v>27</v>
       </c>
@@ -1473,7 +1540,7 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8">
         <v>28</v>
       </c>
@@ -1500,7 +1567,7 @@
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="8">
         <v>29</v>
       </c>
@@ -1525,7 +1592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8">
         <v>30</v>
       </c>
@@ -1550,7 +1617,7 @@
       </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="2:10" ht="90" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8">
         <v>31</v>
       </c>
